--- a/eccrm-base/base-web/src/main/resources/employee_import.xlsx
+++ b/eccrm-base/base-web/src/main/resources/employee_import.xlsx
@@ -159,7 +159,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -190,6 +189,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -198,30 +212,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +242,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -259,12 +258,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -276,28 +298,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,55 +318,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,25 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,37 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,55 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -538,11 +547,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,36 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -600,30 +624,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,141 +644,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -787,16 +790,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1122,17 +1134,17 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.25" style="1" customWidth="1"/>
@@ -1144,213 +1156,213 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6">
+      <c r="E2" s="7"/>
+      <c r="F2" s="9">
         <v>41791</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="9"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
